--- a/GroupCase/Refs./Case Study1 Answer.xlsx
+++ b/GroupCase/Refs./Case Study1 Answer.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karry/KarryRen/Fintech/Karry-PHBS/FintechClass/Class/M3/Corporate-Finance/GroupCase/Refs./"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9267D73-812F-5946-AD57-E3D547CF788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exhibit2" sheetId="22" r:id="rId1"/>
@@ -24,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -156,7 +161,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Hola Kola - The Valuation of the Zero-Calorie Soda Project </t>
     </r>
@@ -165,7 +170,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(Prepared by Professor Lena Booth)</t>
     </r>
@@ -342,91 +347,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="9">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -434,152 +436,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,7 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,210 +492,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -958,322 +646,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="48" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="48" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="48" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="48" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="48" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="48" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="48" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="48" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="48" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="48" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="3" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="5" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="48" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="48" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,175 +822,42 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="注释" xfId="6" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="7" builtinId="11"/>
-    <cellStyle name="标题" xfId="8" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="9" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="10" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="11" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="12" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="输入" xfId="14" builtinId="20"/>
-    <cellStyle name="输出" xfId="15" builtinId="21"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="17" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="18" builtinId="24"/>
-    <cellStyle name="汇总" xfId="19" builtinId="25"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="差" xfId="21" builtinId="27"/>
-    <cellStyle name="适中" xfId="22" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="23" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="24" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="25" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="27" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="29" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="30" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="31" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="32" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="33" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="34" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="36" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="37" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="38" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="40" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="41" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="42" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="43" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="44" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
-    <cellStyle name="Comma 2" xfId="47"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="Percent 2" xfId="49"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1484,14 +891,9 @@
               </a:rPr>
               <a:t>Exhibit 2. Bebida Sol's Sales and Return on Sales </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1538,6 +940,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1550,9 +953,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1592,6 +993,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D64D-0247-826B-3899F9434632}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1647,6 +1053,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1659,9 +1066,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1690,18 +1095,23 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0421165940224159</c:v>
+                  <c:v>4.2116594022415903E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0533665889341027</c:v>
+                  <c:v>5.3366588934102697E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.055709859226909</c:v>
+                  <c:v>5.5709859226908999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D64D-0247-826B-3899F9434632}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1711,7 +1121,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="92030848"/>
         <c:axId val="92028928"/>
@@ -1741,6 +1151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92018560"/>
@@ -1781,14 +1192,9 @@
                   </a:rPr>
                   <a:t>Sales (thounds of pesos</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
@@ -1809,6 +1215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92015616"/>
@@ -1826,22 +1233,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="92028928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1879,14 +1270,9 @@
                   </a:rPr>
                   <a:t>Return of slaes (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="12"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -1907,6 +1293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92030848"/>
@@ -1916,7 +1303,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1932,6 +1318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1951,6 +1338,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1962,7 +1350,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1976,14 +1364,20 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="509270" y="1280160"/>
-        <a:ext cx="5899785" cy="3691255"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2277,25 +1671,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42592592592593" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="125" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -2305,699 +1697,694 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="101">
         <v>642400</v>
       </c>
-      <c r="C3" s="127">
+      <c r="C3" s="102">
         <f>D3/B3</f>
-        <v>0.0421165940224159</v>
-      </c>
-      <c r="D3" s="128">
+        <v>4.2116594022415903E-2</v>
+      </c>
+      <c r="D3" s="103">
         <v>27055.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
-      <c r="B4" s="126">
+      <c r="B4" s="101">
         <v>832341</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="102">
         <f t="shared" ref="C4:C5" si="0">D4/B4</f>
-        <v>0.0533665889341027</v>
-      </c>
-      <c r="D4" s="128">
-        <v>44419.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5.3366588934102697E-2</v>
+      </c>
+      <c r="D4" s="103">
+        <v>44419.199999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="101">
         <v>900101</v>
       </c>
-      <c r="C5" s="127">
+      <c r="C5" s="102">
         <f t="shared" si="0"/>
-        <v>0.055709859226909</v>
-      </c>
-      <c r="D5" s="128">
+        <v>5.5709859226908999E-2</v>
+      </c>
+      <c r="D5" s="103">
         <v>50144.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.28703703703704" customWidth="1"/>
-    <col min="4" max="4" width="14.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="3.42592592592593" customWidth="1"/>
-    <col min="10" max="10" width="3.85185185185185" customWidth="1"/>
-    <col min="13" max="13" width="3.28703703703704" customWidth="1"/>
-    <col min="14" max="14" width="2.13888888888889" customWidth="1"/>
+    <col min="1" max="2" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
-    <row r="2" ht="15.15" spans="2:13">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="101"/>
-    </row>
-    <row r="3" ht="15.6" spans="2:13">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="80"/>
+    </row>
+    <row r="3" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="46"/>
+      <c r="C3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="103"/>
-    </row>
-    <row r="4" ht="15.6" spans="2:13">
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="81"/>
+    </row>
+    <row r="4" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
+      <c r="C4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="103"/>
-    </row>
-    <row r="5" ht="15.6" spans="2:13">
-      <c r="B5" s="61"/>
-      <c r="C5" s="64" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
+      <c r="C5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="103"/>
-    </row>
-    <row r="6" ht="16.35" spans="2:13">
-      <c r="B6" s="61"/>
-      <c r="C6" s="66" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="46"/>
+      <c r="C6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="103"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="103"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="61"/>
-      <c r="C8" s="94" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="81"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
+      <c r="C8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="115">
+      <c r="D8" s="51"/>
+      <c r="E8" s="113">
         <v>2009</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="115">
+      <c r="F8" s="113"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="113">
         <v>2010</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="115">
+      <c r="I8" s="113"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="113">
         <v>2011</v>
       </c>
-      <c r="L8" s="115"/>
-      <c r="M8" s="103"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="61"/>
-      <c r="C9" s="72" t="s">
+      <c r="L8" s="113"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="77">
+      <c r="D9" s="51"/>
+      <c r="E9" s="56">
         <v>642400</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="55">
         <f>E9/$E$9</f>
         <v>1</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="77">
+      <c r="G9" s="51"/>
+      <c r="H9" s="56">
         <v>832341</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="55">
         <f>H9/$H$9</f>
         <v>1</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77">
+      <c r="J9" s="56"/>
+      <c r="K9" s="56">
         <v>900101</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="55">
         <f>K9/$K$9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="103"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="61"/>
-      <c r="C10" s="72" t="s">
+      <c r="M9" s="81"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
+      <c r="C10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="77">
+      <c r="D10" s="51"/>
+      <c r="E10" s="56">
         <v>349884</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="62">
         <f>E10/$E$9</f>
-        <v>0.544651307596513</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="77">
+        <v>0.54465130759651303</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="56">
         <v>456409</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="62">
         <f t="shared" ref="I10:I24" si="0">H10/$H$9</f>
-        <v>0.548343767758647</v>
-      </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77">
+        <v>0.54834376775864702</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56">
         <v>487020</v>
       </c>
-      <c r="L10" s="83">
+      <c r="L10" s="62">
         <f t="shared" ref="L10:L24" si="1">K10/$K$9</f>
-        <v>0.541072612962323</v>
-      </c>
-      <c r="M10" s="103"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="61"/>
-      <c r="C11" s="72" t="s">
+        <v>0.54107261296232301</v>
+      </c>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
+      <c r="C11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="116">
+      <c r="D11" s="51"/>
+      <c r="E11" s="91">
         <f>E9-E10</f>
         <v>292516</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="55">
         <f>E11/$E$9</f>
-        <v>0.455348692403487</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="116">
+        <v>0.45534869240348702</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="91">
         <f>H9-H10</f>
         <v>375932</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="55">
         <f t="shared" si="0"/>
-        <v>0.451656232241353</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="116">
+        <v>0.45165623224135298</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="91">
         <f>K9-K10</f>
         <v>413081</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="55">
         <f t="shared" si="1"/>
-        <v>0.458927387037677</v>
-      </c>
-      <c r="M11" s="103"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="61"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="103"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="61"/>
-      <c r="C13" s="72" t="s">
+        <v>0.45892738703767699</v>
+      </c>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="77">
+      <c r="D13" s="92"/>
+      <c r="E13" s="56">
         <v>120359</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="55">
         <f>E13/$E$9</f>
-        <v>0.187358343711083</v>
-      </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="77">
+        <v>0.18735834371108301</v>
+      </c>
+      <c r="G13" s="92"/>
+      <c r="H13" s="56">
         <v>150322</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="55">
         <f t="shared" si="0"/>
         <v>0.180601460218829</v>
       </c>
-      <c r="J13" s="85"/>
-      <c r="K13" s="77">
+      <c r="J13" s="64"/>
+      <c r="K13" s="56">
         <v>168330</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="55">
         <f t="shared" si="1"/>
-        <v>0.187012346392238</v>
-      </c>
-      <c r="M13" s="103"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="61"/>
-      <c r="C14" s="72" t="s">
+        <v>0.18701234639223799</v>
+      </c>
+      <c r="M13" s="81"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="77">
+      <c r="D14" s="51"/>
+      <c r="E14" s="56">
         <v>65340</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="55">
         <f t="shared" ref="F14:F15" si="2">E14/$E$9</f>
-        <v>0.101712328767123</v>
-      </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="77">
+        <v>0.10171232876712299</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="56">
         <v>88622</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="62">
         <f t="shared" si="0"/>
         <v>0.106473188272595</v>
       </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77">
+      <c r="J14" s="56"/>
+      <c r="K14" s="56">
         <v>97791</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L14" s="62">
         <f t="shared" si="1"/>
-        <v>0.108644474342324</v>
-      </c>
-      <c r="M14" s="103"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="61"/>
-      <c r="C15" s="72" t="s">
+        <v>0.10864447434232399</v>
+      </c>
+      <c r="M14" s="81"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="46"/>
+      <c r="C15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="116">
+      <c r="D15" s="51"/>
+      <c r="E15" s="91">
         <f>E11-E13-E14</f>
         <v>106817</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="95">
         <f t="shared" si="2"/>
-        <v>0.16627801992528</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="116">
+        <v>0.16627801992527999</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="91">
         <f>H11-H13-H14</f>
         <v>136988</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="55">
         <f t="shared" si="0"/>
-        <v>0.164581583749929</v>
-      </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="116">
+        <v>0.16458158374992901</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="91">
         <f>K11-K13-K14</f>
         <v>146960</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="55">
         <f t="shared" si="1"/>
-        <v>0.163270566303115</v>
-      </c>
-      <c r="M15" s="103"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="61"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="103"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="61"/>
-      <c r="C17" s="72" t="s">
+        <v>0.16327056630311501</v>
+      </c>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="46"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
+      <c r="C17" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="77">
+      <c r="D17" s="51"/>
+      <c r="E17" s="56">
         <v>45046</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="55">
         <f t="shared" ref="F17:F18" si="3">E17/$E$9</f>
-        <v>0.0701214196762142</v>
-      </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="77">
+        <v>7.01214196762142E-2</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="56">
         <v>59444</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="62">
         <f t="shared" si="0"/>
-        <v>0.0714178443690747</v>
-      </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77">
+        <v>7.1417844369074696E-2</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56">
         <v>65985</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L17" s="62">
         <f t="shared" si="1"/>
-        <v>0.0733084398306412</v>
-      </c>
-      <c r="M17" s="103"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="61"/>
-      <c r="C18" s="72" t="s">
+        <v>7.3308439830641198E-2</v>
+      </c>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
+      <c r="C18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="116">
+      <c r="D18" s="51"/>
+      <c r="E18" s="91">
         <f>E15-E17</f>
         <v>61771</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="95">
         <f t="shared" si="3"/>
-        <v>0.096156600249066</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="116">
+        <v>9.6156600249065999E-2</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="91">
         <f>H15-H17</f>
         <v>77544</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="55">
         <f t="shared" si="0"/>
-        <v>0.0931637393808547</v>
-      </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="116">
+        <v>9.3163739380854704E-2</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="91">
         <f>K15-K17</f>
         <v>80975</v>
       </c>
-      <c r="L18" s="76">
+      <c r="L18" s="55">
         <f t="shared" si="1"/>
-        <v>0.0899621264724736</v>
-      </c>
-      <c r="M18" s="103"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="61"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="103"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="61"/>
-      <c r="C20" s="72" t="s">
+        <v>8.9962126472473605E-2</v>
+      </c>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
+      <c r="C20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="77">
+      <c r="D20" s="51"/>
+      <c r="E20" s="56">
         <v>23120</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="55">
         <f t="shared" ref="F20:F21" si="4">E20/$E$9</f>
-        <v>0.0359900373599004</v>
-      </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="77">
+        <v>3.5990037359900397E-2</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56">
         <v>14088</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="62">
         <f t="shared" si="0"/>
-        <v>0.0169257551892794</v>
-      </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77">
+        <v>1.6925755189279398E-2</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56">
         <v>9340</v>
       </c>
-      <c r="L20" s="83">
+      <c r="L20" s="62">
         <f t="shared" si="1"/>
-        <v>0.0103766132911751</v>
-      </c>
-      <c r="M20" s="103"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="61"/>
-      <c r="C21" s="72" t="s">
+        <v>1.0376613291175099E-2</v>
+      </c>
+      <c r="M20" s="81"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
+      <c r="C21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="116">
+      <c r="D21" s="51"/>
+      <c r="E21" s="91">
         <f>E18-E20</f>
         <v>38651</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="95">
         <f t="shared" si="4"/>
-        <v>0.0601665628891656</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="116">
+        <v>6.0166562889165602E-2</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="91">
         <f>H18-H20</f>
         <v>63456</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="55">
         <f t="shared" si="0"/>
-        <v>0.0762379841915753</v>
-      </c>
-      <c r="J21" s="77"/>
-      <c r="K21" s="116">
+        <v>7.6237984191575306E-2</v>
+      </c>
+      <c r="J21" s="56"/>
+      <c r="K21" s="91">
         <f>K18-K20</f>
         <v>71635</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="55">
         <f t="shared" si="1"/>
-        <v>0.0795855131812985</v>
-      </c>
-      <c r="M21" s="103"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="61"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="103"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="61"/>
-      <c r="C23" s="72" t="s">
+        <v>7.9585513181298501E-2</v>
+      </c>
+      <c r="M21" s="81"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="46"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="81"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="46"/>
+      <c r="C23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="77">
+      <c r="D23" s="51"/>
+      <c r="E23" s="56">
         <f>0.3*E21</f>
         <v>11595.3</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="55">
         <f t="shared" ref="F23:F24" si="5">E23/$E$9</f>
-        <v>0.0180499688667497</v>
-      </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="77">
+        <v>1.8049968866749699E-2</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="56">
         <f>0.3*H21</f>
         <v>19036.8</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="55">
         <f t="shared" si="0"/>
-        <v>0.0228713952574726</v>
-      </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77">
+        <v>2.2871395257472601E-2</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56">
         <f>0.3*K21</f>
         <v>21490.5</v>
       </c>
-      <c r="L23" s="76">
+      <c r="L23" s="55">
         <f t="shared" si="1"/>
-        <v>0.0238756539543896</v>
-      </c>
-      <c r="M23" s="103"/>
-    </row>
-    <row r="24" ht="15.15" spans="2:13">
-      <c r="B24" s="61"/>
-      <c r="C24" s="72" t="s">
+        <v>2.3875653954389599E-2</v>
+      </c>
+      <c r="M23" s="81"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
+      <c r="C24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="121">
+      <c r="D24" s="51"/>
+      <c r="E24" s="96">
         <f>E21-E23</f>
         <v>27055.7</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="97">
         <f t="shared" si="5"/>
-        <v>0.0421165940224159</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="121">
+        <v>4.2116594022415903E-2</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="96">
         <f>H21-H23</f>
-        <v>44419.2</v>
-      </c>
-      <c r="I24" s="122">
+        <v>44419.199999999997</v>
+      </c>
+      <c r="I24" s="97">
         <f t="shared" si="0"/>
-        <v>0.0533665889341027</v>
-      </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="121">
+        <v>5.3366588934102697E-2</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="96">
         <f>K21-K23</f>
         <v>50144.5</v>
       </c>
-      <c r="L24" s="122">
+      <c r="L24" s="97">
         <f t="shared" si="1"/>
-        <v>0.055709859226909</v>
-      </c>
-      <c r="M24" s="103"/>
-    </row>
-    <row r="25" ht="15.15" spans="2:13">
-      <c r="B25" s="61"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="103"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="61"/>
-      <c r="C26" s="72" t="s">
+        <v>5.5709859226908999E-2</v>
+      </c>
+      <c r="M24" s="81"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="46"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="81"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
+      <c r="C26" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="77">
+      <c r="D26" s="51"/>
+      <c r="E26" s="56">
         <v>20000</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="77">
+      <c r="F26" s="64"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="56">
         <v>20000</v>
       </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77">
+      <c r="I26" s="64"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56">
         <v>20000</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="103"/>
-    </row>
-    <row r="27" ht="15.15" spans="2:13">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100" t="s">
+      <c r="L26" s="64"/>
+      <c r="M26" s="81"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="78"/>
+      <c r="C27" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="123">
+      <c r="D27" s="79"/>
+      <c r="E27" s="98">
         <f>E24-E26</f>
         <v>7055.7</v>
       </c>
-      <c r="F27" s="124"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="123">
+      <c r="F27" s="99"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="98">
         <f>H24-H26</f>
-        <v>24419.2</v>
-      </c>
-      <c r="I27" s="124"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123">
+        <v>24419.200000000001</v>
+      </c>
+      <c r="I27" s="99"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98">
         <f>K24-K26</f>
         <v>30144.5</v>
       </c>
-      <c r="L27" s="124"/>
-      <c r="M27" s="114"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3010,788 +2397,785 @@
     <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4259259259259" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28703703703704" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="10" max="10" width="3.42592592592593" customWidth="1"/>
-    <col min="13" max="13" width="3.28703703703704" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
-    <row r="2" ht="15.15" spans="2:13">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="101"/>
-    </row>
-    <row r="3" ht="15.6" spans="2:13">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="80"/>
+    </row>
+    <row r="3" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="46"/>
+      <c r="C3" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="103"/>
-    </row>
-    <row r="4" ht="15.6" spans="2:13">
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="81"/>
+    </row>
+    <row r="4" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
+      <c r="C4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="103"/>
-    </row>
-    <row r="5" ht="15.6" spans="2:13">
-      <c r="B5" s="61"/>
-      <c r="C5" s="64" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
+      <c r="C5" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="103"/>
-    </row>
-    <row r="6" ht="16.35" spans="2:13">
-      <c r="B6" s="61"/>
-      <c r="C6" s="66" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="46"/>
+      <c r="C6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="103"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="103"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="61"/>
-      <c r="C8" s="69" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="81"/>
+    </row>
+    <row r="8" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
+      <c r="C8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="70">
+      <c r="D8" s="47"/>
+      <c r="E8" s="49">
         <v>2009</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="70">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="49">
         <v>2010</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="70">
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="49">
         <v>2011</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="103"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="61"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="103"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="61"/>
-      <c r="C10" s="74" t="s">
+      <c r="L8" s="50"/>
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="81"/>
+    </row>
+    <row r="10" spans="2:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="75">
+      <c r="D10" s="47"/>
+      <c r="E10" s="54">
         <v>12023</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="55">
         <f>E10/$E$20</f>
-        <v>0.0306559892134162</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="77">
+        <v>3.0655989213416199E-2</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="56">
         <v>36090</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="55">
         <f>H10/$H$20</f>
-        <v>0.0892105136445636</v>
-      </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="106">
+        <v>8.9210513644563602E-2</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="82">
         <v>53020</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="83">
         <f>K10/$K$20</f>
-        <v>0.139621739618129</v>
-      </c>
-      <c r="M10" s="103"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="61"/>
-      <c r="C11" s="72" t="s">
+        <v>0.13962173961812899</v>
+      </c>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
+      <c r="C11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="78">
+      <c r="D11" s="51"/>
+      <c r="E11" s="57">
         <v>61600</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="55">
         <f t="shared" ref="F11:F20" si="0">E11/$E$20</f>
         <v>0.157066367424639</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="77">
-        <v>75252.7479452055</v>
-      </c>
-      <c r="I11" s="76">
+      <c r="G11" s="51"/>
+      <c r="H11" s="56">
+        <v>75252.747945205498</v>
+      </c>
+      <c r="I11" s="55">
         <f t="shared" ref="I11:I32" si="1">H11/$H$20</f>
-        <v>0.18601652250919</v>
-      </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="106">
-        <v>78912.9643835616</v>
-      </c>
-      <c r="L11" s="107">
+        <v>0.18601652250919001</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="82">
+        <v>78912.964383561601</v>
+      </c>
+      <c r="L11" s="83">
         <f t="shared" ref="L11:L32" si="2">K11/$K$20</f>
         <v>0.207807720966736</v>
       </c>
-      <c r="M11" s="103"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="61"/>
-      <c r="C12" s="72" t="s">
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
+      <c r="C12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="78">
+      <c r="D12" s="51"/>
+      <c r="E12" s="57">
         <v>32591.9</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="55">
         <f t="shared" si="0"/>
-        <v>0.08310213215044</v>
-      </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80">
-        <v>45015.6821917808</v>
-      </c>
-      <c r="I12" s="76">
+        <v>8.3102132150440003E-2</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59">
+        <v>45015.682191780797</v>
+      </c>
+      <c r="I12" s="55">
         <f t="shared" si="1"/>
         <v>0.111273819074237</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="108">
-        <v>60043.5616438356</v>
-      </c>
-      <c r="L12" s="107">
+      <c r="J12" s="58"/>
+      <c r="K12" s="84">
+        <v>60043.561643835601</v>
+      </c>
+      <c r="L12" s="83">
         <f t="shared" si="2"/>
-        <v>0.158117437374212</v>
-      </c>
-      <c r="M12" s="103"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="61"/>
-      <c r="C13" s="81" t="s">
+        <v>0.15811743737421199</v>
+      </c>
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="82">
+      <c r="D13" s="51"/>
+      <c r="E13" s="61">
         <v>11792</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="62">
         <f t="shared" si="0"/>
-        <v>0.0300669903355738</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="77">
-        <v>20660.299890411</v>
-      </c>
-      <c r="I13" s="83">
+        <v>3.00669903355738E-2</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="56">
+        <v>20660.299890410999</v>
+      </c>
+      <c r="I13" s="62">
         <f t="shared" si="1"/>
-        <v>0.0510699907252503</v>
-      </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="109">
-        <v>15116.764739726</v>
-      </c>
-      <c r="L13" s="110">
+        <v>5.10699907252503E-2</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="85">
+        <v>15116.764739726001</v>
+      </c>
+      <c r="L13" s="86">
         <f t="shared" si="2"/>
-        <v>0.0398081665476904</v>
-      </c>
-      <c r="M13" s="103"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="61"/>
-      <c r="C14" s="72" t="s">
+        <v>3.9808166547690399E-2</v>
+      </c>
+      <c r="M13" s="81"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="78">
+      <c r="D14" s="51"/>
+      <c r="E14" s="57">
         <f>SUM(E10:E13)</f>
         <v>118006.9</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="55">
         <f t="shared" si="0"/>
-        <v>0.300891479124069</v>
-      </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86">
+        <v>0.30089147912406899</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65">
         <f>SUM(H10:H13)</f>
-        <v>177018.730027397</v>
-      </c>
-      <c r="I14" s="76">
+        <v>177018.73002739699</v>
+      </c>
+      <c r="I14" s="55">
         <f t="shared" si="1"/>
-        <v>0.43757084595324</v>
-      </c>
-      <c r="J14" s="85"/>
-      <c r="K14" s="78">
+        <v>0.43757084595323997</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="57">
         <f>SUM(K10:K13)</f>
-        <v>207093.290767123</v>
-      </c>
-      <c r="L14" s="107">
+        <v>207093.29076712299</v>
+      </c>
+      <c r="L14" s="83">
         <f t="shared" si="2"/>
-        <v>0.545355064506768</v>
-      </c>
-      <c r="M14" s="103"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="61"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="103"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="61"/>
-      <c r="C16" s="72" t="s">
+        <v>0.54535506450676796</v>
+      </c>
+      <c r="M14" s="81"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="46"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="46"/>
+      <c r="C16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="78">
+      <c r="D16" s="51"/>
+      <c r="E16" s="57">
         <v>439230</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="55">
         <f t="shared" si="0"/>
         <v>1.1199392948689</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="77">
+      <c r="G16" s="51"/>
+      <c r="H16" s="56">
         <v>452020</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="55">
         <f t="shared" si="1"/>
         <v>1.11734376219495</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="77">
+      <c r="J16" s="51"/>
+      <c r="K16" s="56">
         <v>463122</v>
       </c>
-      <c r="L16" s="107">
+      <c r="L16" s="83">
         <f t="shared" si="2"/>
         <v>1.21957561854823</v>
       </c>
-      <c r="M16" s="103"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="61"/>
-      <c r="C17" s="81" t="s">
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
+      <c r="C17" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="88">
+      <c r="D17" s="51"/>
+      <c r="E17" s="67">
         <v>165046</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="55">
         <f t="shared" si="0"/>
-        <v>0.420830773992971</v>
-      </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="89">
+        <v>0.42083077399297097</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="68">
         <v>224490</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="55">
         <f t="shared" si="1"/>
-        <v>0.554914608148187</v>
-      </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="77">
+        <v>0.55491460814818705</v>
+      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="56">
         <v>290475</v>
       </c>
-      <c r="L17" s="107">
+      <c r="L17" s="83">
         <f t="shared" si="2"/>
         <v>0.764930683055</v>
       </c>
-      <c r="M17" s="103"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="61"/>
-      <c r="C18" s="72" t="s">
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
+      <c r="C18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="88">
+      <c r="D18" s="51"/>
+      <c r="E18" s="67">
         <f>E16-E17</f>
         <v>274184</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="69">
         <f t="shared" si="0"/>
-        <v>0.699108520875931</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="88">
+        <v>0.69910852087593101</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="67">
         <f>H16-H17</f>
         <v>227530</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="69">
         <f t="shared" si="1"/>
-        <v>0.56242915404676</v>
-      </c>
-      <c r="J18" s="85"/>
-      <c r="K18" s="111">
+        <v>0.56242915404675997</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="87">
         <f>K16-K17</f>
         <v>172647</v>
       </c>
-      <c r="L18" s="112">
+      <c r="L18" s="88">
         <f t="shared" si="2"/>
-        <v>0.454644935493232</v>
-      </c>
-      <c r="M18" s="103"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="61"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="103"/>
-    </row>
-    <row r="20" ht="15.15" spans="2:13">
-      <c r="B20" s="61"/>
-      <c r="C20" s="91" t="s">
+        <v>0.45464493549323198</v>
+      </c>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
+      <c r="C20" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="92">
+      <c r="D20" s="51"/>
+      <c r="E20" s="71">
         <f>E14+E18</f>
         <v>392190.9</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="92">
+      <c r="G20" s="51"/>
+      <c r="H20" s="71">
         <f>H14+H18</f>
-        <v>404548.730027397</v>
-      </c>
-      <c r="I20" s="76">
+        <v>404548.73002739699</v>
+      </c>
+      <c r="I20" s="55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="92">
+      <c r="J20" s="51"/>
+      <c r="K20" s="71">
         <f>K14+K18</f>
-        <v>379740.290767123</v>
-      </c>
-      <c r="L20" s="107">
+        <v>379740.29076712299</v>
+      </c>
+      <c r="L20" s="83">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M20" s="103"/>
-    </row>
-    <row r="21" ht="15.15" spans="2:13">
-      <c r="B21" s="61"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="103"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="61"/>
-      <c r="C22" s="94" t="s">
+      <c r="M20" s="81"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="81"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="46"/>
+      <c r="C22" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="70">
+      <c r="D22" s="74"/>
+      <c r="E22" s="49">
         <v>2009</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="70">
+      <c r="F22" s="75"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="49">
         <v>2010</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="70">
+      <c r="I22" s="55"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="49">
         <v>2011</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="103"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="61"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="103"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="61"/>
-      <c r="C24" s="72" t="s">
+      <c r="L22" s="83"/>
+      <c r="M22" s="81"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="46"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="81"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
+      <c r="C24" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="78">
+      <c r="D24" s="51"/>
+      <c r="E24" s="57">
         <v>34509.1</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="55">
         <f t="shared" ref="F24:F32" si="3">E24/$E$20</f>
-        <v>0.0879905678586627</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="77">
-        <v>43765.2465753425</v>
-      </c>
-      <c r="I24" s="76">
+        <v>8.7990567858662702E-2</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="56">
+        <v>43765.246575342499</v>
+      </c>
+      <c r="I24" s="55">
         <f t="shared" si="1"/>
         <v>0.108182879655508</v>
       </c>
-      <c r="J24" s="72"/>
-      <c r="K24" s="77">
-        <v>48034.8493150685</v>
-      </c>
-      <c r="L24" s="107">
+      <c r="J24" s="51"/>
+      <c r="K24" s="56">
+        <v>48034.849315068503</v>
+      </c>
+      <c r="L24" s="83">
         <f t="shared" si="2"/>
-        <v>0.126493949899369</v>
-      </c>
-      <c r="M24" s="103"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="61"/>
-      <c r="C25" s="72" t="s">
+        <v>0.12649394989936899</v>
+      </c>
+      <c r="M24" s="81"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="46"/>
+      <c r="C25" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="78">
+      <c r="D25" s="51"/>
+      <c r="E25" s="57">
         <v>15083.2</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="55">
         <f t="shared" si="3"/>
-        <v>0.0384588219665474</v>
-      </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="77">
-        <v>19086.8333424658</v>
-      </c>
-      <c r="I25" s="76">
+        <v>3.8458821966547402E-2</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="56">
+        <v>19086.833342465801</v>
+      </c>
+      <c r="I25" s="55">
         <f t="shared" si="1"/>
-        <v>0.0471805543455127</v>
-      </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="77">
+        <v>4.7180554345512701E-2</v>
+      </c>
+      <c r="J25" s="51"/>
+      <c r="K25" s="56">
         <v>20492.7104383562</v>
       </c>
-      <c r="L25" s="107">
+      <c r="L25" s="83">
         <f t="shared" si="2"/>
-        <v>0.0539650675385493</v>
-      </c>
-      <c r="M25" s="103"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="61"/>
-      <c r="C26" s="72" t="s">
+        <v>5.3965067538549301E-2</v>
+      </c>
+      <c r="M25" s="81"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
+      <c r="C26" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="89">
-        <v>70519.9273972603</v>
-      </c>
-      <c r="F26" s="83">
+      <c r="D26" s="51"/>
+      <c r="E26" s="68">
+        <v>70519.927397260297</v>
+      </c>
+      <c r="F26" s="62">
         <f t="shared" si="3"/>
         <v>0.17981020823599</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="89">
-        <v>63428.750109589</v>
-      </c>
-      <c r="I26" s="83">
+      <c r="G26" s="51"/>
+      <c r="H26" s="68">
+        <v>63428.750109588997</v>
+      </c>
+      <c r="I26" s="62">
         <f t="shared" si="1"/>
-        <v>0.156788899338019</v>
-      </c>
-      <c r="J26" s="113"/>
-      <c r="K26" s="89">
+        <v>0.15678889933801901</v>
+      </c>
+      <c r="J26" s="89"/>
+      <c r="K26" s="68">
         <v>22900.3310136986</v>
       </c>
-      <c r="L26" s="110">
+      <c r="L26" s="86">
         <f t="shared" si="2"/>
-        <v>0.0603052443222104</v>
-      </c>
-      <c r="M26" s="103"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="61"/>
-      <c r="C27" s="72" t="s">
+        <v>6.0305244322210398E-2</v>
+      </c>
+      <c r="M26" s="81"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="46"/>
+      <c r="C27" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="97">
+      <c r="D27" s="51"/>
+      <c r="E27" s="76">
         <f>SUM(E24:E26)</f>
-        <v>120112.22739726</v>
-      </c>
-      <c r="F27" s="76">
+        <v>120112.22739725999</v>
+      </c>
+      <c r="F27" s="55">
         <f t="shared" si="3"/>
-        <v>0.3062595980612</v>
-      </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="97">
+        <v>0.30625959806120001</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="76">
         <f>SUM(H24:H26)</f>
-        <v>126280.830027397</v>
-      </c>
-      <c r="I27" s="76">
+        <v>126280.83002739699</v>
+      </c>
+      <c r="I27" s="55">
         <f t="shared" si="1"/>
-        <v>0.31215233333904</v>
-      </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="97">
+        <v>0.31215233333904002</v>
+      </c>
+      <c r="J27" s="51"/>
+      <c r="K27" s="76">
         <f>SUM(K24:K26)</f>
-        <v>91427.8907671233</v>
-      </c>
-      <c r="L27" s="107">
+        <v>91427.890767123303</v>
+      </c>
+      <c r="L27" s="83">
         <f t="shared" si="2"/>
-        <v>0.240764261760129</v>
-      </c>
-      <c r="M27" s="103"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="61"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="103"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="61"/>
-      <c r="C29" s="72" t="s">
+        <v>0.24076426176012899</v>
+      </c>
+      <c r="M27" s="81"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="46"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="81"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="46"/>
+      <c r="C29" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="97">
+      <c r="D29" s="51"/>
+      <c r="E29" s="76">
         <v>45023</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="55">
         <f t="shared" si="3"/>
         <v>0.114798686048044</v>
       </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="77">
+      <c r="G29" s="51"/>
+      <c r="H29" s="56">
         <v>26793</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="55">
         <f t="shared" si="1"/>
-        <v>0.0662293514014628</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="77">
+        <v>6.6229351401462799E-2</v>
+      </c>
+      <c r="J29" s="51"/>
+      <c r="K29" s="56">
         <v>6693</v>
       </c>
-      <c r="L29" s="107">
+      <c r="L29" s="83">
         <f t="shared" si="2"/>
-        <v>0.0176252037582825</v>
-      </c>
-      <c r="M29" s="103"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="61"/>
-      <c r="C30" s="72" t="s">
+        <v>1.7625203758282498E-2</v>
+      </c>
+      <c r="M29" s="81"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="46"/>
+      <c r="C30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="89">
+      <c r="D30" s="51"/>
+      <c r="E30" s="68">
         <v>227055.7</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="62">
         <f t="shared" si="3"/>
-        <v>0.578941785747706</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="89">
+        <v>0.57894178574770605</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="68">
         <v>251474.9</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="62">
         <f t="shared" si="1"/>
-        <v>0.621618315259498</v>
-      </c>
-      <c r="J30" s="72"/>
-      <c r="K30" s="89">
-        <v>281619.4</v>
-      </c>
-      <c r="L30" s="110">
+        <v>0.62161831525949796</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="68">
+        <v>281619.40000000002</v>
+      </c>
+      <c r="L30" s="86">
         <f t="shared" si="2"/>
-        <v>0.741610534481588</v>
-      </c>
-      <c r="M30" s="103"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="61"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="103"/>
-    </row>
-    <row r="32" ht="15.15" spans="2:13">
-      <c r="B32" s="61"/>
-      <c r="C32" s="91" t="s">
+        <v>0.74161053448158798</v>
+      </c>
+      <c r="M30" s="81"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="46"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="81"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="46"/>
+      <c r="C32" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="92">
+      <c r="D32" s="51"/>
+      <c r="E32" s="71">
         <f>E27+E29+E30</f>
-        <v>392190.92739726</v>
-      </c>
-      <c r="F32" s="76">
+        <v>392190.92739725998</v>
+      </c>
+      <c r="F32" s="55">
         <f t="shared" si="3"/>
         <v>1.00000006985695</v>
       </c>
-      <c r="G32" s="98"/>
-      <c r="H32" s="92">
+      <c r="G32" s="77"/>
+      <c r="H32" s="71">
         <f>H27+H29+H30</f>
-        <v>404548.730027397</v>
-      </c>
-      <c r="I32" s="76">
+        <v>404548.73002739699</v>
+      </c>
+      <c r="I32" s="55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="92">
+      <c r="J32" s="77"/>
+      <c r="K32" s="71">
         <f>K27+K29+K30</f>
-        <v>379740.290767123</v>
-      </c>
-      <c r="L32" s="107">
+        <v>379740.29076712299</v>
+      </c>
+      <c r="L32" s="83">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M32" s="103"/>
-    </row>
-    <row r="33" ht="15.9" spans="2:13">
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="114"/>
+      <c r="M32" s="81"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3801,8 +3185,7 @@
     <mergeCell ref="C6:L6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <ignoredErrors>
     <ignoredError sqref="K27 H27 E27" formulaRange="1"/>
   </ignoredErrors>
@@ -3810,44 +3193,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.1388888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85185185185185" style="1" customWidth="1"/>
-    <col min="3" max="8" width="13.712962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.28703703703704" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85185185185185" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85185185185185" style="1"/>
+    <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="13.95"/>
-    <row r="5" ht="14.4" spans="1:8">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3855,967 +3237,932 @@
       <c r="C5" s="6">
         <v>600000</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>50000000</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="15">
+      <c r="F6" s="117"/>
+      <c r="H6" s="10">
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:8">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:8">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>1.8</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="20">
+      <c r="H9" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="20">
+      <c r="H10" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>180000</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="20">
+      <c r="H11" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="22">
+      <c r="H12" s="15">
         <v>0.182</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>50000</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="24">
+      <c r="H13" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:8">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="29">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19">
         <v>800000</v>
       </c>
     </row>
-    <row r="16" ht="13.95" spans="1:8">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
         <v>0</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="20">
         <v>2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="20">
         <v>3</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="20">
         <v>4</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33">
+      <c r="C18" s="22">
         <f>-$H$5</f>
         <v>-50000000</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
         <f>$H$6</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="35">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23">
         <f>-H13*H19</f>
         <v>-1200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22">
         <f>H19+H20</f>
         <v>2800000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:8">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="24">
         <f>(($C$5*12*(1+$C$6)^C16)*($C$7*(1+$C$8)^C16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="D24" s="36">
+        <v>4438356.1643835614</v>
+      </c>
+      <c r="D24" s="24">
         <f>(($C$5*12*(1+$C$6)^D16)*($C$7*(1+$C$8)^D16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="E24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="E24" s="24">
         <f>(($C$5*12*(1+$C$6)^E16)*($C$7*(1+$C$8)^E16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="F24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="F24" s="24">
         <f>(($C$5*12*(1+$C$6)^F16)*($C$7*(1+$C$8)^F16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="G24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="G24" s="24">
         <f>(($C$5*12*(1+$C$6)^G16)*($C$7*(1+$C$8)^G16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:8">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="24">
         <f>($C$5*(1+$C$6)^C16)*($C$9*(1+$C$10)^C16)</f>
         <v>1080000</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="24">
         <f>($C$5*(1+$C$6)^D16)*($C$9*(1+$C$10)^D16)</f>
         <v>1080000</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="24">
         <f>($C$5*(1+$C$6)^E16)*($C$9*(1+$C$10)^E16)</f>
         <v>1080000</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="24">
         <f>($C$5*(1+$C$6)^F16)*($C$9*(1+$C$10)^F16)</f>
         <v>1080000</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="24">
         <f>($C$5*(1+$C$6)^G16)*($C$9*(1+$C$10)^G16)</f>
         <v>1080000</v>
       </c>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:8">
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="25">
         <f>-((($C$5*(1+$C$6)^C16)*12*($C$9*(1+$C$10)^C16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="D26" s="37">
+        <v>-1278246.5753424659</v>
+      </c>
+      <c r="D26" s="25">
         <f>-((($C$5*(1+$C$6)^D16)*12*($C$9*(1+$C$10)^D16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="E26" s="37">
+        <v>-1278246.5753424701</v>
+      </c>
+      <c r="E26" s="25">
         <f>-((($C$5*(1+$C$6)^E16)*12*($C$9*(1+$C$10)^E16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="F26" s="37">
+        <v>-1278246.5753424701</v>
+      </c>
+      <c r="F26" s="25">
         <f>-((($C$5*(1+$C$6)^F16)*12*($C$9*(1+$C$10)^F16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="G26" s="37">
+        <v>-1278246.5753424701</v>
+      </c>
+      <c r="G26" s="25">
         <f>-((($C$5*(1+$C$6)^G16)*12*($C$9*(1+$C$10)^G16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="38">
+        <v>-1278246.5753424701</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="22">
         <f t="shared" ref="C27:H27" si="0">SUM(C24:C26)</f>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="D27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="D27" s="22">
         <f t="shared" si="0"/>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="E27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="F27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="G27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="H27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="22">
         <f>A27-C27</f>
-        <v>-4240109.5890411</v>
-      </c>
-      <c r="D29" s="38">
+        <v>-4240109.5890410999</v>
+      </c>
+      <c r="D29" s="22">
         <f>C27-D27</f>
         <v>0</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="22">
         <f>D27-E27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="22">
         <f>E27-F27</f>
         <v>0</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="22">
         <f>F27-G27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="22">
         <f>G27-H27</f>
-        <v>4240109.5890411</v>
-      </c>
-    </row>
-    <row r="31" ht="14.4" spans="1:8">
+        <v>4240109.5890410999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="26">
         <f>$C$5*12*(1+$C$6)^C16</f>
         <v>7200000</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="26">
         <f>$C$5*12*(1+$C$6)^D16</f>
         <v>7200000</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="26">
         <f>$C$5*12*(1+$C$6)^E16</f>
         <v>7200000</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="26">
         <f>$C$5*12*(1+$C$6)^F16</f>
         <v>7200000</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="26">
         <f>$C$5*12*(1+$C$6)^G16</f>
         <v>7200000</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="22">
         <f>D31*$C$7*(1+$C$8)^C16</f>
         <v>36000000</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="22">
         <f>E31*$C$7*(1+$C$8)^D16</f>
         <v>36000000</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="22">
         <f>F31*$C$7*(1+$C$8)^E16</f>
         <v>36000000</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="22">
         <f>G31*$C$7*(1+$C$8)^F16</f>
         <v>36000000</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="22">
         <f>H31*$C$7*(1+$C$8)^G16</f>
         <v>36000000</v>
       </c>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="I32" s="42"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:8">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="26">
         <f>-(D31*$C$9)*(1+$C$10)^C16</f>
         <v>-12960000</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="26">
         <f>-(E31*$C$9)*(1+$C$10)^D16</f>
         <v>-12960000</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="26">
         <f>-(F31*$C$9)*(1+$C$10)^E16</f>
         <v>-12960000</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="26">
         <f>-(G31*$C$9)*(1+$C$10)^F16</f>
         <v>-12960000</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="26">
         <f>-(H31*$C$9)*(1+$C$10)^G16</f>
         <v>-12960000</v>
       </c>
     </row>
-    <row r="36" ht="14.4" spans="1:8">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="26">
         <f>-$C$11*12*(1+$C$12)^C16</f>
         <v>-2160000</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="26">
         <f>-$C$11*12*(1+$C$12)^D16</f>
         <v>-2160000</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="26">
         <f>-$C$11*12*(1+$C$12)^E16</f>
         <v>-2160000</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="26">
         <f>-$C$11*12*(1+$C$12)^F16</f>
         <v>-2160000</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="26">
         <f>-$C$11*12*(1+$C$12)^G16</f>
         <v>-2160000</v>
       </c>
     </row>
-    <row r="37" ht="14.4" spans="1:8">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="26">
         <f>-$C$13*12*(1+$C$14)^C16</f>
         <v>-600000</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="26">
         <f>-$C$13*12*(1+$C$14)^D16</f>
         <v>-600000</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="26">
         <f>-$C$13*12*(1+$C$14)^E16</f>
         <v>-600000</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="26">
         <f>-$C$13*12*(1+$C$14)^F16</f>
         <v>-600000</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="26">
         <f>-$C$13*12*(1+$C$14)^G16</f>
         <v>-600000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="22">
         <v>-300000</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="22">
         <v>-300000</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="22">
         <v>-300000</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="22">
         <v>-300000</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="22">
         <v>-300000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="23">
         <f>-$H$7*D32</f>
         <v>-360000</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="23">
         <f>-$H$7*E32</f>
         <v>-360000</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="23">
         <f>-$H$7*F32</f>
         <v>-360000</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="23">
         <f>-$H$7*G32</f>
         <v>-360000</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="23">
         <f>-$H$7*H32</f>
         <v>-360000</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="22">
         <f>SUM(D35:D41)</f>
         <v>-26440000</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="22">
         <f>SUM(E35:E41)</f>
         <v>-26440000</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="22">
         <f>SUM(F35:F41)</f>
         <v>-26440000</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="22">
         <f>SUM(G35:G41)</f>
         <v>-26440000</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="22">
         <f>SUM(H35:H41)</f>
         <v>-26440000</v>
       </c>
     </row>
-    <row r="43" spans="4:8">
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-    </row>
-    <row r="44" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="22">
         <f>D32+D42</f>
         <v>9560000</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="22">
         <f>E32+E42</f>
         <v>9560000</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="22">
         <f>F32+F42</f>
         <v>9560000</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="22">
         <f>G32+G42</f>
         <v>9560000</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="22">
         <f>H32+H42</f>
         <v>9560000</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="23">
         <f>-$H$13*D44</f>
         <v>-2868000</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="23">
         <f>-$H$13*E44</f>
         <v>-2868000</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="23">
         <f>-$H$13*F44</f>
         <v>-2868000</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="23">
         <f>-$H$13*G44</f>
         <v>-2868000</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="23">
         <f>-$H$13*H44</f>
         <v>-2868000</v>
       </c>
     </row>
-    <row r="47" spans="4:8">
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-    </row>
-    <row r="48" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="22">
         <f>D44+D46</f>
         <v>6692000</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="22">
         <f>E44+E46</f>
         <v>6692000</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="22">
         <f>F44+F46</f>
         <v>6692000</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="22">
         <f>G44+G46</f>
         <v>6692000</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="22">
         <f>H44+H46</f>
         <v>6692000</v>
       </c>
     </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:1">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="22">
         <f>-D39</f>
         <v>10000000</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="22">
         <f>-E39</f>
         <v>10000000</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="22">
         <f>-F39</f>
         <v>10000000</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="22">
         <f>-G39</f>
         <v>10000000</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="22">
         <f>-H39</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="22">
         <f>D48+D51+D52</f>
         <v>15892000</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="22">
         <f>E48+E51+E52</f>
         <v>15892000</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="22">
         <f>F48+F51+F52</f>
         <v>15892000</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="22">
         <f>G48+G51+G52</f>
         <v>15892000</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="22">
         <f>H48+H51+H52</f>
         <v>15892000</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="44" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30">
         <f>C18+C29+C53</f>
-        <v>-54240109.5890411</v>
-      </c>
-      <c r="D55" s="45">
+        <v>-54240109.589041099</v>
+      </c>
+      <c r="D55" s="30">
         <f>D19+D29+D53</f>
         <v>15892000</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="30">
         <f>E19+E29+E53</f>
         <v>15892000</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="30">
         <f>F19+F29+F53</f>
         <v>15892000</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="30">
         <f>G19+G29+G53</f>
         <v>15892000</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="30">
         <f>H21+H29+H53</f>
-        <v>22932109.5890411</v>
-      </c>
-    </row>
-    <row r="57" ht="14.4" spans="1:8">
+        <v>22932109.589041099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="26">
         <f t="shared" ref="C57:H57" si="1">C55/(1+$H$12)^C16</f>
-        <v>-54240109.5890411</v>
-      </c>
-      <c r="D57" s="39">
+        <v>-54240109.589041099</v>
+      </c>
+      <c r="D57" s="26">
         <f t="shared" si="1"/>
         <v>13445008.4602369</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="26">
+        <f>E55/(1+$H$12)^E16</f>
+        <v>11374795.651638653</v>
+      </c>
+      <c r="F57" s="26">
         <f t="shared" si="1"/>
-        <v>11374795.6516387</v>
-      </c>
-      <c r="F57" s="39">
+        <v>9623346.5749903992</v>
+      </c>
+      <c r="G57" s="26">
         <f t="shared" si="1"/>
-        <v>9623346.5749904</v>
-      </c>
-      <c r="G57" s="39">
+        <v>8141579.1666585496</v>
+      </c>
+      <c r="H57" s="26">
         <f t="shared" si="1"/>
-        <v>8141579.16665855</v>
-      </c>
-      <c r="H57" s="39">
-        <f t="shared" si="1"/>
-        <v>9939318.91780025</v>
-      </c>
-    </row>
-    <row r="58" ht="13.95"/>
-    <row r="59" spans="1:3">
-      <c r="A59" s="46" t="s">
+        <v>9939318.9178002495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48">
+      <c r="B59" s="32"/>
+      <c r="C59" s="33">
         <f>NPV($H$12,D55:H55)+C55</f>
-        <v>-1716060.81771635</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="49" t="s">
+        <v>-1716060.8177163601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51">
+      <c r="B60" s="35"/>
+      <c r="C60" s="36">
         <f>IRR(C55:H55)</f>
         <v>0.168587051033778</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52">
+      <c r="B61" s="35"/>
+      <c r="C61" s="37">
         <f>IF(D55&gt;ABS(C55),0+ABS(C55)/D55,IF(SUM(D55:E55)&gt;ABS(C55),1+(ABS(C55)-D55)/E55,IF(SUM(D55:F55)&gt;ABS(C55),2+(ABS(C55)-SUM(D55+E55)/F55),IF(SUM(D55:G55)&gt;ABS(C55),3+(ABS(C55)-SUM(D55:F55))/G55,IF(SUM(D55:H55)&gt;ABS(C55),4+(ABS(C55)-SUM(D55:G55))/H55)))))</f>
-        <v>3.41304490240631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="49" t="s">
+        <v>3.4130449024063112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="53" t="b">
+      <c r="B62" s="35"/>
+      <c r="C62" s="38" t="b">
         <f>IF(D57&gt;ABS(C57),0+ABS(C57)/D57,IF(SUM(D57:E57)&gt;ABS(C57),1+(ABS(C57)-D57)/E57,IF(SUM(D57:F57)&gt;ABS(C57),2+(ABS(C57)-SUM(D57+E57)/F57),IF(SUM(D57:G57)&gt;ABS(C57),3+(ABS(C57)-SUM(D57:F57))/G57,IF(SUM(D57:H57)&gt;ABS(C57),4+(ABS(C57)-SUM(D57:G57))/H57)))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="13.95" spans="1:3">
-      <c r="A63" s="54" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56">
+      <c r="B63" s="40"/>
+      <c r="C63" s="41">
         <f>NPV($H$12,D55:H55)/-C55</f>
-        <v>0.968361774511181</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
+        <v>0.96836177451118099</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4823,50 +4170,48 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.1388888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85185185185185" style="1" customWidth="1"/>
-    <col min="3" max="8" width="13.712962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.28703703703704" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85185185185185" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85185185185185" style="1"/>
+    <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="13.95"/>
-    <row r="5" ht="14.4" spans="1:8">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -4874,967 +4219,932 @@
       <c r="C5" s="6">
         <v>600000</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>50000000</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="15">
+      <c r="F6" s="117"/>
+      <c r="H6" s="10">
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:8">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:8">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>1.8</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="20">
+      <c r="H9" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0.05</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="20">
+      <c r="H10" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>180000</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="20">
+      <c r="H11" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>0.05</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="22">
+      <c r="H12" s="15">
         <v>0.182</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>50000</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="24">
+      <c r="H13" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:8">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
         <v>0.05</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="29">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19">
         <v>800000</v>
       </c>
     </row>
-    <row r="16" ht="13.95" spans="1:8">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
         <v>0</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="20">
         <v>2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="20">
         <v>3</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="20">
         <v>4</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33">
+      <c r="C18" s="22">
         <f>-$H$5</f>
         <v>-50000000</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
         <f>$H$6</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="35">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23">
         <f>-H13*H19</f>
         <v>-1200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22">
         <f>H19+H20</f>
         <v>2800000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:8">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="24">
         <f>(($C$5*12*(1+$C$6)^C16)*($C$7*(1+$C$8)^C16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="D24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="D24" s="24">
         <f>(($C$5*12*(1+$C$6)^D16)*($C$7*(1+$C$8)^D16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="E24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="E24" s="24">
         <f>(($C$5*12*(1+$C$6)^E16)*($C$7*(1+$C$8)^E16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="F24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="F24" s="24">
         <f>(($C$5*12*(1+$C$6)^F16)*($C$7*(1+$C$8)^F16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="G24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="G24" s="24">
         <f>(($C$5*12*(1+$C$6)^G16)*($C$7*(1+$C$8)^G16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:8">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="24">
         <f>($C$5*(1+$C$6)^C16)*($C$9*(1+$C$10)^C16)</f>
         <v>1080000</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="24">
         <f>($C$5*(1+$C$6)^D16)*($C$9*(1+$C$10)^D16)</f>
         <v>1134000</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="24">
         <f>($C$5*(1+$C$6)^E16)*($C$9*(1+$C$10)^E16)</f>
         <v>1190700</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="24">
         <f>($C$5*(1+$C$6)^F16)*($C$9*(1+$C$10)^F16)</f>
         <v>1250235</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="24">
         <f>($C$5*(1+$C$6)^G16)*($C$9*(1+$C$10)^G16)</f>
         <v>1312746.75</v>
       </c>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:8">
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="25">
         <f>-((($C$5*(1+$C$6)^C16)*12*($C$9*(1+$C$10)^C16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="D26" s="37">
+        <v>-1278246.5753424701</v>
+      </c>
+      <c r="D26" s="25">
         <f>-((($C$5*(1+$C$6)^D16)*12*($C$9*(1+$C$10)^D16))/365)*$H$10</f>
         <v>-1342158.90410959</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="25">
         <f>-((($C$5*(1+$C$6)^E16)*12*($C$9*(1+$C$10)^E16))/365)*$H$10</f>
-        <v>-1409266.84931507</v>
-      </c>
-      <c r="F26" s="37">
+        <v>-1409266.8493150701</v>
+      </c>
+      <c r="F26" s="25">
         <f>-((($C$5*(1+$C$6)^F16)*12*($C$9*(1+$C$10)^F16))/365)*$H$10</f>
         <v>-1479730.19178082</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="25">
         <f>-((($C$5*(1+$C$6)^G16)*12*($C$9*(1+$C$10)^G16))/365)*$H$10</f>
         <v>-1553716.70136986</v>
       </c>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="38">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="22">
         <f t="shared" ref="C27:H27" si="0">SUM(C24:C26)</f>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="D27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="D27" s="22">
         <f t="shared" si="0"/>
-        <v>4230197.26027397</v>
-      </c>
-      <c r="E27" s="38">
+        <v>4230197.2602739697</v>
+      </c>
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
-        <v>4219789.31506849</v>
-      </c>
-      <c r="F27" s="38">
+        <v>4219789.3150684899</v>
+      </c>
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>4208860.97260274</v>
-      </c>
-      <c r="G27" s="38">
+        <v>4208860.9726027399</v>
+      </c>
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
-        <v>4197386.2130137</v>
-      </c>
-      <c r="H27" s="38">
+        <v>4197386.2130137002</v>
+      </c>
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="22">
         <f>A27-C27</f>
-        <v>-4240109.5890411</v>
-      </c>
-      <c r="D29" s="38">
+        <v>-4240109.5890410999</v>
+      </c>
+      <c r="D29" s="22">
         <f>C27-D27</f>
-        <v>9912.3287671227</v>
-      </c>
-      <c r="E29" s="38">
+        <v>9912.3287671227008</v>
+      </c>
+      <c r="E29" s="22">
         <f>D27-E27</f>
         <v>10407.9452054799</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="22">
         <f>E27-F27</f>
         <v>10928.3424657537</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="22">
         <f>F27-G27</f>
         <v>11474.7595890416</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="22">
         <f>G27-H27</f>
-        <v>4197386.2130137</v>
-      </c>
-    </row>
-    <row r="31" ht="14.4" spans="1:8">
+        <v>4197386.2130137002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="26">
         <f>$C$5*12*(1+$C$6)^C16</f>
         <v>7200000</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="26">
         <f>$C$5*12*(1+$C$6)^D16</f>
         <v>7200000</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="26">
         <f>$C$5*12*(1+$C$6)^E16</f>
         <v>7200000</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="26">
         <f>$C$5*12*(1+$C$6)^F16</f>
         <v>7200000</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="26">
         <f>$C$5*12*(1+$C$6)^G16</f>
         <v>7200000</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="22">
         <f>D31*$C$7*(1+$C$8)^C16</f>
         <v>36000000</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="22">
         <f>E31*$C$7*(1+$C$8)^D16</f>
         <v>36000000</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="22">
         <f>F31*$C$7*(1+$C$8)^E16</f>
         <v>36000000</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="22">
         <f>G31*$C$7*(1+$C$8)^F16</f>
         <v>36000000</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="22">
         <f>H31*$C$7*(1+$C$8)^G16</f>
         <v>36000000</v>
       </c>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="I32" s="42"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:8">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="26">
         <f>-(D31*$C$9)*(1+$C$10)^C16</f>
         <v>-12960000</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="26">
         <f>-(E31*$C$9)*(1+$C$10)^D16</f>
         <v>-13608000</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="26">
         <f>-(F31*$C$9)*(1+$C$10)^E16</f>
         <v>-14288400</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="26">
         <f>-(G31*$C$9)*(1+$C$10)^F16</f>
         <v>-15002820</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="26">
         <f>-(H31*$C$9)*(1+$C$10)^G16</f>
         <v>-15752961</v>
       </c>
     </row>
-    <row r="36" ht="14.4" spans="1:8">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="26">
         <f>-$C$11*12*(1+$C$12)^C16</f>
         <v>-2160000</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="26">
         <f>-$C$11*12*(1+$C$12)^D16</f>
         <v>-2268000</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="26">
         <f>-$C$11*12*(1+$C$12)^E16</f>
         <v>-2381400</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="26">
         <f>-$C$11*12*(1+$C$12)^F16</f>
         <v>-2500470</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="26">
         <f>-$C$11*12*(1+$C$12)^G16</f>
         <v>-2625493.5</v>
       </c>
     </row>
-    <row r="37" ht="14.4" spans="1:8">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="26">
         <f>-$C$13*12*(1+$C$14)^C16</f>
         <v>-600000</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="26">
         <f>-$C$13*12*(1+$C$14)^D16</f>
         <v>-630000</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="26">
         <f>-$C$13*12*(1+$C$14)^E16</f>
         <v>-661500</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="26">
         <f>-$C$13*12*(1+$C$14)^F16</f>
         <v>-694575</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="26">
         <f>-$C$13*12*(1+$C$14)^G16</f>
         <v>-729303.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="22">
         <v>-300000</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="22">
         <v>-300000</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="22">
         <v>-300000</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="22">
         <v>-300000</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="22">
         <v>-300000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="23">
         <f>-$H$7*D32</f>
         <v>-360000</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="23">
         <f>-$H$7*E32</f>
         <v>-360000</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="23">
         <f>-$H$7*F32</f>
         <v>-360000</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="23">
         <f>-$H$7*G32</f>
         <v>-360000</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="23">
         <f>-$H$7*H32</f>
         <v>-360000</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="22">
         <f>SUM(D35:D41)</f>
         <v>-26440000</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="22">
         <f>SUM(E35:E41)</f>
         <v>-27226000</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="22">
         <f>SUM(F35:F41)</f>
         <v>-28051300</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="22">
         <f>SUM(G35:G41)</f>
         <v>-28917865</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="22">
         <f>SUM(H35:H41)</f>
         <v>-29827758.25</v>
       </c>
     </row>
-    <row r="43" spans="4:8">
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-    </row>
-    <row r="44" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="22">
         <f>D32+D42</f>
         <v>9560000</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="22">
         <f>E32+E42</f>
         <v>8774000</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="22">
         <f>F32+F42</f>
         <v>7948700</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="22">
         <f>G32+G42</f>
         <v>7082135</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="22">
         <f>H32+H42</f>
         <v>6172241.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="23">
         <f>-$H$13*D44</f>
         <v>-2868000</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="23">
         <f>-$H$13*E44</f>
         <v>-2632200</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="23">
         <f>-$H$13*F44</f>
         <v>-2384610</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="23">
         <f>-$H$13*G44</f>
         <v>-2124640.5</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="23">
         <f>-$H$13*H44</f>
-        <v>-1851672.525</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8">
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-1851672.5249999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="22">
         <f>D44+D46</f>
         <v>6692000</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="22">
         <f>E44+E46</f>
         <v>6141800</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="22">
         <f>F44+F46</f>
         <v>5564090</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="22">
         <f>G44+G46</f>
         <v>4957494.5</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="22">
         <f>H44+H46</f>
-        <v>4320569.225</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:1">
+        <v>4320569.2249999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="22">
         <f>-D39</f>
         <v>10000000</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="22">
         <f>-E39</f>
         <v>10000000</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="22">
         <f>-F39</f>
         <v>10000000</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="22">
         <f>-G39</f>
         <v>10000000</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="22">
         <f>-H39</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="22">
         <f>D48+D51+D52</f>
         <v>15892000</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="22">
         <f>E48+E51+E52</f>
         <v>15341800</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="22">
         <f>F48+F51+F52</f>
         <v>14764090</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="22">
         <f>G48+G51+G52</f>
         <v>14157494.5</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="22">
         <f>H48+H51+H52</f>
         <v>13520569.225</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="44" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30">
         <f>C18+C29+C53</f>
-        <v>-54240109.5890411</v>
-      </c>
-      <c r="D55" s="45">
+        <v>-54240109.589041099</v>
+      </c>
+      <c r="D55" s="30">
         <f>D19+D29+D53</f>
         <v>15901912.3287671</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="30">
         <f>E19+E29+E53</f>
         <v>15352207.9452055</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="30">
         <f>F19+F29+F53</f>
-        <v>14775018.3424658</v>
-      </c>
-      <c r="G55" s="45">
+        <v>14775018.342465799</v>
+      </c>
+      <c r="G55" s="30">
         <f>G19+G29+G53</f>
         <v>14168969.259589</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="30">
         <f>H21+H29+H53</f>
-        <v>20517955.4380137</v>
-      </c>
-    </row>
-    <row r="57" ht="14.4" spans="1:8">
+        <v>20517955.438013699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="26">
         <f t="shared" ref="C57:H57" si="1">C55/(1+$H$12)^C16</f>
-        <v>-54240109.5890411</v>
-      </c>
-      <c r="D57" s="39">
+        <v>-54240109.589041099</v>
+      </c>
+      <c r="D57" s="26">
         <f t="shared" si="1"/>
         <v>13453394.5251837</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>10988436.2055233</v>
-      </c>
-      <c r="F57" s="39">
+        <v>10988436.205523301</v>
+      </c>
+      <c r="F57" s="26">
         <f t="shared" si="1"/>
-        <v>8946962.12946062</v>
-      </c>
-      <c r="G57" s="39">
+        <v>8946962.1294606198</v>
+      </c>
+      <c r="G57" s="26">
         <f t="shared" si="1"/>
-        <v>7258858.85583284</v>
-      </c>
-      <c r="H57" s="39">
+        <v>7258858.8558328403</v>
+      </c>
+      <c r="H57" s="26">
         <f t="shared" si="1"/>
-        <v>8892967.38478388</v>
-      </c>
-    </row>
-    <row r="58" ht="13.95"/>
-    <row r="59" spans="1:3">
-      <c r="A59" s="46" t="s">
+        <v>8892967.3847838808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48">
+      <c r="B59" s="32"/>
+      <c r="C59" s="33">
         <f>NPV($H$12,D55:H55)+C55</f>
-        <v>-4699490.48825681</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="49" t="s">
+        <v>-4699490.4882568102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51">
+      <c r="B60" s="35"/>
+      <c r="C60" s="36">
         <f>IRR(C55:H55)</f>
-        <v>0.144022735454689</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="49" t="s">
+        <v>0.14402273545468899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52">
+      <c r="B61" s="35"/>
+      <c r="C61" s="37">
         <f>IF(D55&gt;ABS(C55),0+ABS(C55)/D55,IF(SUM(D55:E55)&gt;ABS(C55),1+(ABS(C55)-D55)/E55,IF(SUM(D55:F55)&gt;ABS(C55),2+(ABS(C55)-SUM(D55+E55)/F55),IF(SUM(D55:G55)&gt;ABS(C55),3+(ABS(C55)-SUM(D55:F55))/G55,IF(SUM(D55:H55)&gt;ABS(C55),4+(ABS(C55)-SUM(D55:G55))/H55)))))</f>
         <v>3.5795037608008</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="49" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="53" t="b">
+      <c r="B62" s="35"/>
+      <c r="C62" s="38" t="b">
         <f>IF(D57&gt;ABS(C57),0+ABS(C57)/D57,IF(SUM(D57:E57)&gt;ABS(C57),1+(ABS(C57)-D57)/E57,IF(SUM(D57:F57)&gt;ABS(C57),2+(ABS(C57)-SUM(D57+E57)/F57),IF(SUM(D57:G57)&gt;ABS(C57),3+(ABS(C57)-SUM(D57:F57))/G57,IF(SUM(D57:H57)&gt;ABS(C57),4+(ABS(C57)-SUM(D57:G57))/H57)))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="13.95" spans="1:3">
-      <c r="A63" s="54" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56">
+      <c r="B63" s="40"/>
+      <c r="C63" s="41">
         <f>NPV($H$12,D55:H55)/-C55</f>
-        <v>0.913357651305219</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
+        <v>0.91335765130521895</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5842,50 +5152,48 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A34" zoomScale="109" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.1388888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85185185185185" style="1" customWidth="1"/>
-    <col min="3" max="8" width="13.712962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.28703703703704" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85185185185185" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85185185185185" style="1"/>
+    <col min="1" max="1" width="41.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="13.95"/>
-    <row r="5" ht="14.4" spans="1:8">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -5893,967 +5201,932 @@
       <c r="C5" s="6">
         <v>600000</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>50000000</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:8">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>-0.02</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="15">
+      <c r="F6" s="117"/>
+      <c r="H6" s="10">
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:8">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:8">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>0.05</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>1.8</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="20">
+      <c r="H9" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:8">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0.05</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="20">
+      <c r="H10" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>180000</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="20">
+      <c r="H11" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:8">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>0.05</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="22">
+      <c r="H12" s="15">
         <v>0.182</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:8">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>50000</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="24">
+      <c r="H13" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:8">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
         <v>0.05</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="29">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19">
         <v>800000</v>
       </c>
     </row>
-    <row r="16" ht="13.95" spans="1:8">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
         <v>0</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="20">
         <v>2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="20">
         <v>3</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="20">
         <v>4</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33">
+      <c r="C18" s="22">
         <f>-$H$5</f>
         <v>-50000000</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
         <f>$H$6</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="35">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23">
         <f>-H13*H19</f>
         <v>-1200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22">
         <f>H19+H20</f>
         <v>2800000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:8">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="24">
         <f>(($C$5*12*(1+$C$6)^C16)*($C$7*(1+$C$8)^C16))/365*$H$9</f>
-        <v>4438356.16438356</v>
-      </c>
-      <c r="D24" s="36">
+        <v>4438356.1643835604</v>
+      </c>
+      <c r="D24" s="24">
         <f>(($C$5*12*(1+$C$6)^D16)*($C$7*(1+$C$8)^D16))/365*$H$9</f>
-        <v>4567068.49315068</v>
-      </c>
-      <c r="E24" s="36">
+        <v>4567068.4931506803</v>
+      </c>
+      <c r="E24" s="24">
         <f>(($C$5*12*(1+$C$6)^E16)*($C$7*(1+$C$8)^E16))/365*$H$9</f>
-        <v>4699513.47945205</v>
-      </c>
-      <c r="F24" s="36">
+        <v>4699513.4794520503</v>
+      </c>
+      <c r="F24" s="24">
         <f>(($C$5*12*(1+$C$6)^F16)*($C$7*(1+$C$8)^F16))/365*$H$9</f>
-        <v>4835799.37035616</v>
-      </c>
-      <c r="G24" s="36">
+        <v>4835799.3703561602</v>
+      </c>
+      <c r="G24" s="24">
         <f>(($C$5*12*(1+$C$6)^G16)*($C$7*(1+$C$8)^G16))/365*$H$9</f>
-        <v>4976037.55209649</v>
-      </c>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:8">
+        <v>4976037.5520964898</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="24">
         <f>($C$5*(1+$C$6)^C16)*($C$9*(1+$C$10)^C16)</f>
         <v>1080000</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="24">
         <f>($C$5*(1+$C$6)^D16)*($C$9*(1+$C$10)^D16)</f>
         <v>1111320</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="24">
         <f>($C$5*(1+$C$6)^E16)*($C$9*(1+$C$10)^E16)</f>
         <v>1143548.28</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="24">
         <f>($C$5*(1+$C$6)^F16)*($C$9*(1+$C$10)^F16)</f>
-        <v>1176711.18012</v>
-      </c>
-      <c r="G25" s="36">
+        <v>1176711.1801199999</v>
+      </c>
+      <c r="G25" s="24">
         <f>($C$5*(1+$C$6)^G16)*($C$9*(1+$C$10)^G16)</f>
-        <v>1210835.80434348</v>
-      </c>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:8">
+        <v>1210835.8043434799</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="25">
         <f>-((($C$5*(1+$C$6)^C16)*12*($C$9*(1+$C$10)^C16))/365)*$H$10</f>
-        <v>-1278246.57534247</v>
-      </c>
-      <c r="D26" s="37">
+        <v>-1278246.5753424701</v>
+      </c>
+      <c r="D26" s="25">
         <f>-((($C$5*(1+$C$6)^D16)*12*($C$9*(1+$C$10)^D16))/365)*$H$10</f>
         <v>-1315315.7260274</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="25">
         <f>-((($C$5*(1+$C$6)^E16)*12*($C$9*(1+$C$10)^E16))/365)*$H$10</f>
-        <v>-1353459.88208219</v>
-      </c>
-      <c r="F26" s="37">
+        <v>-1353459.8820821899</v>
+      </c>
+      <c r="F26" s="25">
         <f>-((($C$5*(1+$C$6)^F16)*12*($C$9*(1+$C$10)^F16))/365)*$H$10</f>
         <v>-1392710.21866258</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="25">
         <f>-((($C$5*(1+$C$6)^G16)*12*($C$9*(1+$C$10)^G16))/365)*$H$10</f>
         <v>-1433098.81500379</v>
       </c>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="38">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="22">
         <f t="shared" ref="C27:H27" si="0">SUM(C24:C26)</f>
-        <v>4240109.5890411</v>
-      </c>
-      <c r="D27" s="38">
+        <v>4240109.5890410999</v>
+      </c>
+      <c r="D27" s="22">
         <f t="shared" si="0"/>
-        <v>4363072.76712329</v>
-      </c>
-      <c r="E27" s="38">
+        <v>4363072.7671232903</v>
+      </c>
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
-        <v>4489601.87736986</v>
-      </c>
-      <c r="F27" s="38">
+        <v>4489601.8773698602</v>
+      </c>
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>4619800.33181359</v>
-      </c>
-      <c r="G27" s="38">
+        <v>4619800.3318135897</v>
+      </c>
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
-        <v>4753774.54143618</v>
-      </c>
-      <c r="H27" s="38">
+        <v>4753774.5414361795</v>
+      </c>
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="22">
         <f>A27-C27</f>
-        <v>-4240109.5890411</v>
-      </c>
-      <c r="D29" s="38">
+        <v>-4240109.5890410999</v>
+      </c>
+      <c r="D29" s="22">
         <f>C27-D27</f>
         <v>-122963.178082192</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="22">
         <f>D27-E27</f>
         <v>-126529.110246575</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="22">
         <f>E27-F27</f>
-        <v>-130198.454443727</v>
-      </c>
-      <c r="G29" s="38">
+        <v>-130198.45444372699</v>
+      </c>
+      <c r="G29" s="22">
         <f>F27-G27</f>
-        <v>-133974.209622595</v>
-      </c>
-      <c r="H29" s="38">
+        <v>-133974.20962259499</v>
+      </c>
+      <c r="H29" s="22">
         <f>G27-H27</f>
-        <v>4753774.54143618</v>
-      </c>
-    </row>
-    <row r="31" ht="14.4" spans="1:8">
+        <v>4753774.5414361795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="26">
         <f>$C$5*12*(1+$C$6)^C16</f>
         <v>7200000</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="26">
         <f>$C$5*12*(1+$C$6)^D16</f>
         <v>7056000</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="26">
         <f>$C$5*12*(1+$C$6)^E16</f>
         <v>6914880</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="26">
         <f>$C$5*12*(1+$C$6)^F16</f>
-        <v>6776582.4</v>
-      </c>
-      <c r="H31" s="39">
+        <v>6776582.4000000004</v>
+      </c>
+      <c r="H31" s="26">
         <f>$C$5*12*(1+$C$6)^G16</f>
-        <v>6641050.752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>6641050.7520000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="22">
         <f>D31*$C$7*(1+$C$8)^C16</f>
         <v>36000000</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="22">
         <f>E31*$C$7*(1+$C$8)^D16</f>
         <v>37044000</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="22">
         <f>F31*$C$7*(1+$C$8)^E16</f>
         <v>38118276</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="22">
         <f>G31*$C$7*(1+$C$8)^F16</f>
-        <v>39223706.004</v>
-      </c>
-      <c r="H32" s="40">
+        <v>39223706.004000001</v>
+      </c>
+      <c r="H32" s="22">
         <f>H31*$C$7*(1+$C$8)^G16</f>
-        <v>40361193.478116</v>
-      </c>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="34" spans="1:1">
+        <v>40361193.478115998</v>
+      </c>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:8">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="26">
         <f>-(D31*$C$9)*(1+$C$10)^C16</f>
         <v>-12960000</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="26">
         <f>-(E31*$C$9)*(1+$C$10)^D16</f>
         <v>-13335840</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="26">
         <f>-(F31*$C$9)*(1+$C$10)^E16</f>
-        <v>-13722579.36</v>
-      </c>
-      <c r="G35" s="39">
+        <v>-13722579.359999999</v>
+      </c>
+      <c r="G35" s="26">
         <f>-(G31*$C$9)*(1+$C$10)^F16</f>
         <v>-14120534.16144</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="26">
         <f>-(H31*$C$9)*(1+$C$10)^G16</f>
-        <v>-14530029.6521218</v>
-      </c>
-    </row>
-    <row r="36" ht="14.4" spans="1:8">
+        <v>-14530029.652121801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="26">
         <f>-$C$11*12*(1+$C$12)^C16</f>
         <v>-2160000</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="26">
         <f>-$C$11*12*(1+$C$12)^D16</f>
         <v>-2268000</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="26">
         <f>-$C$11*12*(1+$C$12)^E16</f>
         <v>-2381400</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="26">
         <f>-$C$11*12*(1+$C$12)^F16</f>
         <v>-2500470</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="26">
         <f>-$C$11*12*(1+$C$12)^G16</f>
         <v>-2625493.5</v>
       </c>
     </row>
-    <row r="37" ht="14.4" spans="1:8">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="26">
         <f>-$C$13*12*(1+$C$14)^C16</f>
         <v>-600000</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="26">
         <f>-$C$13*12*(1+$C$14)^D16</f>
         <v>-630000</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="26">
         <f>-$C$13*12*(1+$C$14)^E16</f>
         <v>-661500</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="26">
         <f>-$C$13*12*(1+$C$14)^F16</f>
         <v>-694575</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="26">
         <f>-$C$13*12*(1+$C$14)^G16</f>
         <v>-729303.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="27">
         <f>-$H$8</f>
         <v>-60000</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="22">
         <f>-$H$5/$H$11</f>
         <v>-10000000</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="22">
         <v>-300000</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="22">
         <v>-300000</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="22">
         <v>-300000</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="22">
         <v>-300000</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="22">
         <v>-300000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="23">
         <f>-$H$7*D32</f>
         <v>-360000</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="23">
         <f>-$H$7*E32</f>
         <v>-370440</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="23">
         <f>-$H$7*F32</f>
         <v>-381182.76</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="23">
         <f>-$H$7*G32</f>
-        <v>-392237.06004</v>
-      </c>
-      <c r="H41" s="35">
+        <v>-392237.06004000001</v>
+      </c>
+      <c r="H41" s="23">
         <f>-$H$7*H32</f>
-        <v>-403611.93478116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-403611.93478115997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="22">
         <f>SUM(D35:D41)</f>
         <v>-26440000</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="22">
         <f>SUM(E35:E41)</f>
         <v>-26964280</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="22">
         <f>SUM(F35:F41)</f>
-        <v>-27506662.12</v>
-      </c>
-      <c r="G42" s="42">
+        <v>-27506662.120000001</v>
+      </c>
+      <c r="G42" s="22">
         <f>SUM(G35:G41)</f>
-        <v>-28067816.22148</v>
-      </c>
-      <c r="H42" s="42">
+        <v>-28067816.221480001</v>
+      </c>
+      <c r="H42" s="22">
         <f>SUM(H35:H41)</f>
-        <v>-28648438.8369029</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8">
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-28648438.836902902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="22">
         <f>D32+D42</f>
         <v>9560000</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="22">
         <f>E32+E42</f>
         <v>10079720</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="22">
         <f>F32+F42</f>
-        <v>10611613.88</v>
-      </c>
-      <c r="G44" s="40">
+        <v>10611613.880000001</v>
+      </c>
+      <c r="G44" s="22">
         <f>G32+G42</f>
         <v>11155889.78252</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="22">
         <f>H32+H42</f>
         <v>11712754.6412131</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="23">
         <f>-$H$13*D44</f>
         <v>-2868000</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="23">
         <f>-$H$13*E44</f>
         <v>-3023916</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="23">
         <f>-$H$13*F44</f>
-        <v>-3183484.164</v>
-      </c>
-      <c r="G46" s="35">
+        <v>-3183484.1639999999</v>
+      </c>
+      <c r="G46" s="23">
         <f>-$H$13*G44</f>
-        <v>-3346766.934756</v>
-      </c>
-      <c r="H46" s="35">
+        <v>-3346766.9347560001</v>
+      </c>
+      <c r="H46" s="23">
         <f>-$H$13*H44</f>
-        <v>-3513826.39236392</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8">
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-3513826.3923639199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="22">
         <f>D44+D46</f>
         <v>6692000</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="22">
         <f>E44+E46</f>
         <v>7055804</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="22">
         <f>F44+F46</f>
-        <v>7428129.71599999</v>
-      </c>
-      <c r="G48" s="40">
+        <v>7428129.7159999898</v>
+      </c>
+      <c r="G48" s="22">
         <f>G44+G46</f>
-        <v>7809122.847764</v>
-      </c>
-      <c r="H48" s="40">
+        <v>7809122.8477640003</v>
+      </c>
+      <c r="H48" s="22">
         <f>H44+H46</f>
         <v>8198928.24884916</v>
       </c>
     </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:1">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="22">
         <f>-D39</f>
         <v>10000000</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="22">
         <f>-E39</f>
         <v>10000000</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="22">
         <f>-F39</f>
         <v>10000000</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="22">
         <f>-G39</f>
         <v>10000000</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="22">
         <f>-H39</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="28">
         <f>-$H$14</f>
         <v>-800000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="22">
         <f>D48+D51+D52</f>
         <v>15892000</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="22">
         <f>E48+E51+E52</f>
         <v>16255804</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="22">
         <f>F48+F51+F52</f>
         <v>16628129.716</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="22">
         <f>G48+G51+G52</f>
         <v>17009122.847764</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="22">
         <f>H48+H51+H52</f>
-        <v>17398928.2488492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="44" t="s">
+        <v>17398928.248849198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30">
         <f>C18+C29+C53</f>
-        <v>-54240109.5890411</v>
-      </c>
-      <c r="D55" s="45">
+        <v>-54240109.589041099</v>
+      </c>
+      <c r="D55" s="30">
         <f>D19+D29+D53</f>
         <v>15769036.8219178</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="30">
         <f>E19+E29+E53</f>
-        <v>16129274.8897534</v>
-      </c>
-      <c r="F55" s="45">
+        <v>16129274.889753399</v>
+      </c>
+      <c r="F55" s="30">
         <f>F19+F29+F53</f>
-        <v>16497931.2615563</v>
-      </c>
-      <c r="G55" s="45">
+        <v>16497931.261556299</v>
+      </c>
+      <c r="G55" s="30">
         <f>G19+G29+G53</f>
-        <v>16875148.6381414</v>
-      </c>
-      <c r="H55" s="45">
+        <v>16875148.638141401</v>
+      </c>
+      <c r="H55" s="30">
         <f>H21+H29+H53</f>
         <v>24952702.7902853</v>
       </c>
     </row>
-    <row r="57" ht="14.4" spans="1:8">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="26">
         <f t="shared" ref="C57:H57" si="1">C55/(1+$H$12)^C16</f>
-        <v>-54240109.5890411</v>
-      </c>
-      <c r="D57" s="39">
+        <v>-54240109.589041099</v>
+      </c>
+      <c r="D57" s="26">
         <f t="shared" si="1"/>
-        <v>13340978.698746</v>
-      </c>
-      <c r="E57" s="39">
+        <v>13340978.698745999</v>
+      </c>
+      <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>11544626.5970332</v>
-      </c>
-      <c r="F57" s="39">
+        <v>11544626.597033201</v>
+      </c>
+      <c r="F57" s="26">
         <f t="shared" si="1"/>
-        <v>9990266.19055654</v>
-      </c>
-      <c r="G57" s="39">
+        <v>9990266.1905565392</v>
+      </c>
+      <c r="G57" s="26">
         <f t="shared" si="1"/>
-        <v>8645252.86852243</v>
-      </c>
-      <c r="H57" s="39">
+        <v>8645252.8685224298</v>
+      </c>
+      <c r="H57" s="26">
         <f t="shared" si="1"/>
         <v>10815091.8227014</v>
       </c>
     </row>
-    <row r="58" ht="13.95"/>
-    <row r="59" spans="1:3">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48">
+      <c r="B59" s="32"/>
+      <c r="C59" s="33">
         <f>NPV($H$12,D55:H55)+C55</f>
-        <v>96106.5885184929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="49" t="s">
+        <v>96106.588518492907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51">
+      <c r="B60" s="35"/>
+      <c r="C60" s="36">
         <f>IRR(C55:H55)</f>
         <v>0.182733664439723</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52">
+      <c r="B61" s="35"/>
+      <c r="C61" s="37">
         <f>IF(D55&gt;ABS(C55),0+ABS(C55)/D55,IF(SUM(D55:E55)&gt;ABS(C55),1+(ABS(C55)-D55)/E55,IF(SUM(D55:F55)&gt;ABS(C55),2+(ABS(C55)-SUM(D55+E55)/F55),IF(SUM(D55:G55)&gt;ABS(C55),3+(ABS(C55)-SUM(D55:F55))/G55,IF(SUM(D55:H55)&gt;ABS(C55),4+(ABS(C55)-SUM(D55:G55))/H55)))))</f>
-        <v>3.34630015658678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="49" t="s">
+        <v>3.3463001565867798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="53">
+      <c r="B62" s="35"/>
+      <c r="C62" s="38">
         <f>IF(D57&gt;ABS(C57),0+ABS(C57)/D57,IF(SUM(D57:E57)&gt;ABS(C57),1+(ABS(C57)-D57)/E57,IF(SUM(D57:F57)&gt;ABS(C57),2+(ABS(C57)-SUM(D57+E57)/F57),IF(SUM(D57:G57)&gt;ABS(C57),3+(ABS(C57)-SUM(D57:F57))/G57,IF(SUM(D57:H57)&gt;ABS(C57),4+(ABS(C57)-SUM(D57:G57))/H57)))))</f>
-        <v>4.99111365949601</v>
-      </c>
-    </row>
-    <row r="63" ht="13.95" spans="1:3">
-      <c r="A63" s="54" t="s">
+        <v>4.9911136594960102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56">
+      <c r="B63" s="40"/>
+      <c r="C63" s="41">
         <f>NPV($H$12,D55:H55)/-C55</f>
         <v>1.001771873052</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6861,7 +6134,6 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/GroupCase/Refs./Case Study1 Answer.xlsx
+++ b/GroupCase/Refs./Case Study1 Answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karry/KarryRen/Fintech/Karry-PHBS/FintechClass/Class/M3/Corporate-Finance/GroupCase/Refs./"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9267D73-812F-5946-AD57-E3D547CF788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A753C95F-5A21-9D48-A5C0-41727DF0A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exhibit2" sheetId="22" r:id="rId1"/>
@@ -3199,8 +3199,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="83" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
         <v>93</v>
       </c>
